--- a/PPAP Master File 2024.xlsx
+++ b/PPAP Master File 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eurotechdirect.sharepoint.com/sites/quality/Shared Documents/4.PPAP/2.Incoming PPAPs from Suppliers/CTC/1.PPAPs Info/Archive master files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3048" documentId="13_ncr:1_{7EEF8A20-EFF8-44C4-80CC-9C529C58DE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F1F28F5-E12B-46BC-82D7-0F2659B84AAD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293DDE63-393F-4482-86BE-507F3F0D6488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8FD47F59-1A62-435E-B308-072C3B0AEB4E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8FD47F59-1A62-435E-B308-072C3B0AEB4E}"/>
   </bookViews>
   <sheets>
     <sheet name="PPAPs 2024" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="324">
   <si>
     <t>STATUS</t>
   </si>
@@ -991,13 +991,37 @@
   </si>
   <si>
     <t>Kent Manufacturing Company</t>
+  </si>
+  <si>
+    <t>Cliente "A&amp;A" no esta en la base de datos</t>
+  </si>
+  <si>
+    <t>Cliente "Dortec Industries" no esta en la base de datos</t>
+  </si>
+  <si>
+    <t>Cual CUS es Bizlink - Mexico?</t>
+  </si>
+  <si>
+    <t>No tiene fechas</t>
+  </si>
+  <si>
+    <t>Solo esta el nombre del cliente</t>
+  </si>
+  <si>
+    <t>No hay Customer PN para "317-9-33-WHT"</t>
+  </si>
+  <si>
+    <t>Cliente "Littlefuse" no esta en la base de datos</t>
+  </si>
+  <si>
+    <t>No hay Customer PN para "8550X-12-25-BLK"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1068,8 +1092,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1089,6 +1120,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1522,7 +1565,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1986,6 +2029,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2305,44 +2351,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758B90B7-AB1A-4E5B-A081-F96148B648F1}">
   <dimension ref="A1:AF168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="30" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="30" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.984375E-2" style="30" customWidth="1"/>
+    <col min="2" max="2" width="49.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.81640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="17" style="1" customWidth="1"/>
     <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1796875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.1796875" customWidth="1"/>
+    <col min="25" max="25" width="11.54296875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="19.453125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="62.1796875" customWidth="1"/>
+    <col min="28" max="28" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
@@ -2398,7 +2445,7 @@
       <c r="U1" s="160"/>
       <c r="V1" s="161"/>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="3" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="164"/>
       <c r="B2" s="166"/>
       <c r="C2" s="170"/>
@@ -2441,7 +2488,7 @@
       </c>
       <c r="X2" s="78"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>30</v>
       </c>
@@ -2503,8 +2550,11 @@
       </c>
       <c r="V3" s="27"/>
       <c r="X3" s="79"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA3" s="171" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>30</v>
       </c>
@@ -2574,8 +2624,9 @@
       <c r="Z4" s="25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA4" s="172"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>30</v>
       </c>
@@ -2640,8 +2691,9 @@
       <c r="Z5" s="33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA5" s="172"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>30</v>
       </c>
@@ -2708,8 +2760,9 @@
       <c r="Z6" s="37" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA6" s="172"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
         <v>37</v>
       </c>
@@ -2768,8 +2821,9 @@
       <c r="Z7" s="45" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA7" s="172"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38" t="s">
         <v>37</v>
       </c>
@@ -2825,8 +2879,9 @@
       <c r="W8" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA8" s="172"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="69" t="s">
         <v>30</v>
       </c>
@@ -2892,8 +2947,9 @@
       </c>
       <c r="V9" s="76"/>
       <c r="X9" s="79"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA9" s="172"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
         <v>30</v>
       </c>
@@ -2957,8 +3013,9 @@
       </c>
       <c r="V10" s="27"/>
       <c r="X10" s="79"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA10" s="172"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
         <v>30</v>
       </c>
@@ -3025,8 +3082,9 @@
         <v>45362</v>
       </c>
       <c r="V11" s="27"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA11" s="172"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="29" t="s">
         <v>30</v>
       </c>
@@ -3093,8 +3151,9 @@
         <v>45363</v>
       </c>
       <c r="V12" s="27"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA12" s="172"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>30</v>
       </c>
@@ -3159,8 +3218,9 @@
         <v>45363</v>
       </c>
       <c r="V13" s="27"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA13" s="172"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
         <v>30</v>
       </c>
@@ -3224,8 +3284,9 @@
       </c>
       <c r="V14" s="27"/>
       <c r="X14" s="79"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA14" s="172"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
         <v>37</v>
       </c>
@@ -3291,8 +3352,9 @@
         <v>45502</v>
       </c>
       <c r="X15" s="79"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA15" s="172"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="38" t="s">
         <v>37</v>
       </c>
@@ -3361,8 +3423,9 @@
       <c r="V16" s="47">
         <v>45530</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA16" s="172"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>30</v>
       </c>
@@ -3425,8 +3488,9 @@
         <v>45537</v>
       </c>
       <c r="V17" s="27"/>
-    </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA17" s="172"/>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29" t="s">
         <v>30</v>
       </c>
@@ -3493,8 +3557,9 @@
         <v>45517</v>
       </c>
       <c r="V18" s="27"/>
-    </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA18" s="172"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
         <v>30</v>
       </c>
@@ -3555,8 +3620,9 @@
         <v>45414</v>
       </c>
       <c r="V19" s="27"/>
-    </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA19" s="172"/>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="38" t="s">
         <v>37</v>
       </c>
@@ -3609,8 +3675,9 @@
       <c r="T20" s="41"/>
       <c r="U20" s="46"/>
       <c r="V20" s="43"/>
-    </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA20" s="172"/>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="29" t="s">
         <v>30</v>
       </c>
@@ -3671,8 +3738,9 @@
         <v>45406</v>
       </c>
       <c r="V21" s="27"/>
-    </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA21" s="172"/>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="38" t="s">
         <v>37</v>
       </c>
@@ -3736,8 +3804,9 @@
         <v>45537</v>
       </c>
       <c r="X22" s="79"/>
-    </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA22" s="172"/>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="38" t="s">
         <v>37</v>
       </c>
@@ -3801,8 +3870,9 @@
         <v>45502</v>
       </c>
       <c r="X23" s="79"/>
-    </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA23" s="172"/>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>30</v>
       </c>
@@ -3865,8 +3935,9 @@
         <v>45547</v>
       </c>
       <c r="V24" s="115"/>
-    </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA24" s="172"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="38" t="s">
         <v>37</v>
       </c>
@@ -3923,8 +3994,9 @@
       <c r="V25" s="47">
         <v>45366</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA25" s="172"/>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="38" t="s">
         <v>37</v>
       </c>
@@ -3981,8 +4053,9 @@
       <c r="V26" s="47">
         <v>45400</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA26" s="172"/>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="38" t="s">
         <v>37</v>
       </c>
@@ -4037,8 +4110,9 @@
       <c r="V27" s="47">
         <v>45441</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA27" s="172"/>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="38" t="s">
         <v>37</v>
       </c>
@@ -4095,8 +4169,9 @@
       <c r="V28" s="47">
         <v>45420</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA28" s="172"/>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
         <v>30</v>
       </c>
@@ -4161,8 +4236,11 @@
         <v>45362</v>
       </c>
       <c r="V29" s="27"/>
-    </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA29" s="171" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="38" t="s">
         <v>37</v>
       </c>
@@ -4229,8 +4307,11 @@
       <c r="V30" s="47">
         <v>45414</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA30" s="171" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="38" t="s">
         <v>37</v>
       </c>
@@ -4295,8 +4376,11 @@
       <c r="V31" s="47">
         <v>45398</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA31" s="171" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
         <v>30</v>
       </c>
@@ -4345,8 +4429,9 @@
       <c r="T32" s="24"/>
       <c r="U32" s="20"/>
       <c r="V32" s="27"/>
-    </row>
-    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA32" s="172"/>
+    </row>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="29" t="s">
         <v>30</v>
       </c>
@@ -4399,8 +4484,9 @@
         <v>45531</v>
       </c>
       <c r="V33" s="27"/>
-    </row>
-    <row r="34" spans="1:24" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA33" s="172"/>
+    </row>
+    <row r="34" spans="1:27" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="38" t="s">
         <v>37</v>
       </c>
@@ -4454,8 +4540,9 @@
       <c r="U34" s="34"/>
       <c r="V34" s="43"/>
       <c r="W34"/>
-    </row>
-    <row r="35" spans="1:24" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA34" s="173"/>
+    </row>
+    <row r="35" spans="1:27" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="138" t="s">
         <v>304</v>
       </c>
@@ -4497,8 +4584,11 @@
       <c r="U35" s="144"/>
       <c r="V35" s="147"/>
       <c r="W35"/>
-    </row>
-    <row r="36" spans="1:24" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA35" s="171" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="38" t="s">
         <v>30</v>
       </c>
@@ -4550,8 +4640,9 @@
       <c r="U36" s="34"/>
       <c r="V36" s="43"/>
       <c r="W36"/>
-    </row>
-    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA36" s="173"/>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="28"/>
       <c r="B37" s="9" t="s">
         <v>86</v>
@@ -4611,8 +4702,9 @@
       <c r="U37" s="10"/>
       <c r="V37" s="15"/>
       <c r="W37" s="127"/>
-    </row>
-    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA37" s="172"/>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="29" t="s">
         <v>30</v>
       </c>
@@ -4661,8 +4753,9 @@
         <v>45547</v>
       </c>
       <c r="V38" s="27"/>
-    </row>
-    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA38" s="172"/>
+    </row>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="29" t="s">
         <v>30</v>
       </c>
@@ -4721,8 +4814,9 @@
         <v>45357</v>
       </c>
       <c r="V39" s="27"/>
-    </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA39" s="172"/>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="29" t="s">
         <v>30</v>
       </c>
@@ -4773,8 +4867,11 @@
       <c r="T40" s="24"/>
       <c r="U40" s="20"/>
       <c r="V40" s="27"/>
-    </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA40" s="171" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="29" t="s">
         <v>30</v>
       </c>
@@ -4839,8 +4936,9 @@
         <v>45406</v>
       </c>
       <c r="V41" s="27"/>
-    </row>
-    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA41" s="172"/>
+    </row>
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="29" t="s">
         <v>30</v>
       </c>
@@ -4905,8 +5003,9 @@
         <v>45359</v>
       </c>
       <c r="V42" s="27"/>
-    </row>
-    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA42" s="172"/>
+    </row>
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="29" t="s">
         <v>30</v>
       </c>
@@ -4967,8 +5066,9 @@
         <v>45497</v>
       </c>
       <c r="V43" s="27"/>
-    </row>
-    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA43" s="172"/>
+    </row>
+    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="29" t="s">
         <v>30</v>
       </c>
@@ -5034,8 +5134,9 @@
       </c>
       <c r="V44" s="27"/>
       <c r="X44" s="79"/>
-    </row>
-    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA44" s="172"/>
+    </row>
+    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="29" t="s">
         <v>30</v>
       </c>
@@ -5102,8 +5203,9 @@
         <v>45463</v>
       </c>
       <c r="V45" s="27"/>
-    </row>
-    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA45" s="172"/>
+    </row>
+    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="29" t="s">
         <v>30</v>
       </c>
@@ -5170,8 +5272,9 @@
         <v>45422</v>
       </c>
       <c r="V46" s="27"/>
-    </row>
-    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA46" s="172"/>
+    </row>
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="38" t="s">
         <v>37</v>
       </c>
@@ -5240,8 +5343,9 @@
       <c r="V47" s="47">
         <v>45476</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA47" s="172"/>
+    </row>
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="38" t="s">
         <v>37</v>
       </c>
@@ -5308,8 +5412,9 @@
       <c r="V48" s="47">
         <v>45405</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA48" s="172"/>
+    </row>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="38" t="s">
         <v>37</v>
       </c>
@@ -5374,8 +5479,9 @@
       <c r="V49" s="47">
         <v>45475</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA49" s="172"/>
+    </row>
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="38" t="s">
         <v>37</v>
       </c>
@@ -5442,8 +5548,9 @@
       <c r="V50" s="47">
         <v>45392</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA50" s="172"/>
+    </row>
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="29" t="s">
         <v>30</v>
       </c>
@@ -5508,8 +5615,9 @@
         <v>45510</v>
       </c>
       <c r="V51" s="115"/>
-    </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA51" s="172"/>
+    </row>
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="38" t="s">
         <v>37</v>
       </c>
@@ -5576,8 +5684,9 @@
       <c r="V52" s="47">
         <v>45546</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA52" s="172"/>
+    </row>
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="38" t="s">
         <v>37</v>
       </c>
@@ -5630,8 +5739,9 @@
       <c r="T53" s="41"/>
       <c r="U53" s="34"/>
       <c r="V53" s="43"/>
-    </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA53" s="172"/>
+    </row>
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="29" t="s">
         <v>30</v>
       </c>
@@ -5690,8 +5800,9 @@
         <v>45463</v>
       </c>
       <c r="V54" s="27"/>
-    </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA54" s="172"/>
+    </row>
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="29" t="s">
         <v>30</v>
       </c>
@@ -5751,8 +5862,9 @@
       </c>
       <c r="V55" s="27"/>
       <c r="X55" s="79"/>
-    </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA55" s="172"/>
+    </row>
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="29" t="s">
         <v>30</v>
       </c>
@@ -5802,8 +5914,9 @@
       <c r="U56" s="36"/>
       <c r="V56" s="27"/>
       <c r="X56" s="79"/>
-    </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA56" s="172"/>
+    </row>
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="29" t="s">
         <v>30</v>
       </c>
@@ -5857,11 +5970,12 @@
       <c r="W57" t="s">
         <v>290</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="X57" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA57" s="172"/>
+    </row>
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="29" t="s">
         <v>30</v>
       </c>
@@ -5915,8 +6029,9 @@
       <c r="W58" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA58" s="172"/>
+    </row>
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="29" t="s">
         <v>30</v>
       </c>
@@ -5978,8 +6093,9 @@
       </c>
       <c r="V59" s="27"/>
       <c r="X59" s="79"/>
-    </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA59" s="172"/>
+    </row>
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="29" t="s">
         <v>30</v>
       </c>
@@ -6040,8 +6156,9 @@
         <v>45463</v>
       </c>
       <c r="V60" s="27"/>
-    </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA60" s="172"/>
+    </row>
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="29" t="s">
         <v>30</v>
       </c>
@@ -6100,8 +6217,9 @@
         <v>45355</v>
       </c>
       <c r="V61" s="27"/>
-    </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA61" s="172"/>
+    </row>
+    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="38" t="s">
         <v>37</v>
       </c>
@@ -6166,8 +6284,9 @@
       <c r="V62" s="47">
         <v>45602</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA62" s="172"/>
+    </row>
+    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="38" t="s">
         <v>37</v>
       </c>
@@ -6232,8 +6351,9 @@
       <c r="V63" s="47">
         <v>45602</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA63" s="172"/>
+    </row>
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="38" t="s">
         <v>37</v>
       </c>
@@ -6298,8 +6418,9 @@
       <c r="V64" s="47">
         <v>45602</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA64" s="172"/>
+    </row>
+    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="29" t="s">
         <v>30</v>
       </c>
@@ -6365,8 +6486,9 @@
       </c>
       <c r="V65" s="27"/>
       <c r="X65" s="79"/>
-    </row>
-    <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA65" s="172"/>
+    </row>
+    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="29" t="s">
         <v>30</v>
       </c>
@@ -6431,8 +6553,9 @@
         <v>45498</v>
       </c>
       <c r="V66" s="27"/>
-    </row>
-    <row r="67" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA66" s="172"/>
+    </row>
+    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="29" t="s">
         <v>30</v>
       </c>
@@ -6491,8 +6614,9 @@
         <v>45435</v>
       </c>
       <c r="V67" s="27"/>
-    </row>
-    <row r="68" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA67" s="172"/>
+    </row>
+    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="38" t="s">
         <v>37</v>
       </c>
@@ -6559,8 +6683,9 @@
       <c r="V68" s="47">
         <v>45320</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA68" s="172"/>
+    </row>
+    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="38" t="s">
         <v>37</v>
       </c>
@@ -6627,8 +6752,9 @@
       <c r="V69" s="47">
         <v>45320</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA69" s="172"/>
+    </row>
+    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="38" t="s">
         <v>37</v>
       </c>
@@ -6697,8 +6823,9 @@
       <c r="V70" s="47">
         <v>45320</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA70" s="172"/>
+    </row>
+    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="38" t="s">
         <v>37</v>
       </c>
@@ -6765,8 +6892,9 @@
       <c r="V71" s="47">
         <v>45320</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA71" s="172"/>
+    </row>
+    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="29" t="s">
         <v>30</v>
       </c>
@@ -6833,8 +6961,9 @@
         <v>45526</v>
       </c>
       <c r="V72" s="27"/>
-    </row>
-    <row r="73" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA72" s="172"/>
+    </row>
+    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="29" t="s">
         <v>30</v>
       </c>
@@ -6901,8 +7030,9 @@
         <v>45526</v>
       </c>
       <c r="V73" s="27"/>
-    </row>
-    <row r="74" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA73" s="172"/>
+    </row>
+    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="29" t="s">
         <v>30</v>
       </c>
@@ -6969,8 +7099,9 @@
         <v>45526</v>
       </c>
       <c r="V74" s="27"/>
-    </row>
-    <row r="75" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA74" s="172"/>
+    </row>
+    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="29" t="s">
         <v>30</v>
       </c>
@@ -7037,8 +7168,9 @@
         <v>45526</v>
       </c>
       <c r="V75" s="27"/>
-    </row>
-    <row r="76" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA75" s="172"/>
+    </row>
+    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="29" t="s">
         <v>30</v>
       </c>
@@ -7103,8 +7235,9 @@
         <v>45526</v>
       </c>
       <c r="V76" s="27"/>
-    </row>
-    <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA76" s="172"/>
+    </row>
+    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="29" t="s">
         <v>30</v>
       </c>
@@ -7157,8 +7290,9 @@
         <v>45463</v>
       </c>
       <c r="V77" s="27"/>
-    </row>
-    <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA77" s="172"/>
+    </row>
+    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="38" t="s">
         <v>37</v>
       </c>
@@ -7225,8 +7359,9 @@
       <c r="V78" s="47">
         <v>45442</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA78" s="172"/>
+    </row>
+    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="38" t="s">
         <v>37</v>
       </c>
@@ -7279,8 +7414,9 @@
       <c r="V79" s="47">
         <v>45520</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA79" s="172"/>
+    </row>
+    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="29" t="s">
         <v>30</v>
       </c>
@@ -7333,8 +7469,9 @@
         <v>45547</v>
       </c>
       <c r="V80" s="27"/>
-    </row>
-    <row r="81" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA80" s="172"/>
+    </row>
+    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="100" t="s">
         <v>37</v>
       </c>
@@ -7385,8 +7522,9 @@
       <c r="T81" s="41"/>
       <c r="U81" s="102"/>
       <c r="V81" s="117"/>
-    </row>
-    <row r="82" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA81" s="172"/>
+    </row>
+    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="29" t="s">
         <v>30</v>
       </c>
@@ -7439,8 +7577,9 @@
         <v>45526</v>
       </c>
       <c r="V82" s="27"/>
-    </row>
-    <row r="83" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA82" s="172"/>
+    </row>
+    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="29" t="s">
         <v>30</v>
       </c>
@@ -7493,8 +7632,9 @@
         <v>45504</v>
       </c>
       <c r="V83" s="27"/>
-    </row>
-    <row r="84" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA83" s="172"/>
+    </row>
+    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="29" t="s">
         <v>30</v>
       </c>
@@ -7560,8 +7700,9 @@
       </c>
       <c r="V84" s="27"/>
       <c r="X84" s="79"/>
-    </row>
-    <row r="85" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA84" s="172"/>
+    </row>
+    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="69" t="s">
         <v>30</v>
       </c>
@@ -7612,8 +7753,9 @@
       <c r="T85" s="24"/>
       <c r="U85" s="71"/>
       <c r="V85" s="76"/>
-    </row>
-    <row r="86" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA85" s="172"/>
+    </row>
+    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="29" t="s">
         <v>30</v>
       </c>
@@ -7664,8 +7806,9 @@
       <c r="T86" s="24"/>
       <c r="U86" s="20"/>
       <c r="V86" s="27"/>
-    </row>
-    <row r="87" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA86" s="172"/>
+    </row>
+    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="29" t="s">
         <v>30</v>
       </c>
@@ -7728,8 +7871,9 @@
         <v>45463</v>
       </c>
       <c r="V87" s="27"/>
-    </row>
-    <row r="88" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA87" s="172"/>
+    </row>
+    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="38" t="s">
         <v>37</v>
       </c>
@@ -7796,8 +7940,9 @@
       <c r="V88" s="47">
         <v>45371</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA88" s="172"/>
+    </row>
+    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="28"/>
       <c r="B89" s="9" t="s">
         <v>176</v>
@@ -7856,8 +8001,9 @@
       </c>
       <c r="U89" s="10"/>
       <c r="V89" s="15"/>
-    </row>
-    <row r="90" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA89" s="172"/>
+    </row>
+    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="29" t="s">
         <v>30</v>
       </c>
@@ -7918,8 +8064,9 @@
         <v>45439</v>
       </c>
       <c r="V90" s="27"/>
-    </row>
-    <row r="91" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA90" s="172"/>
+    </row>
+    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="29" t="s">
         <v>30</v>
       </c>
@@ -7984,8 +8131,9 @@
         <v>45513</v>
       </c>
       <c r="V91" s="27"/>
-    </row>
-    <row r="92" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA91" s="172"/>
+    </row>
+    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="29" t="s">
         <v>30</v>
       </c>
@@ -8036,8 +8184,9 @@
         <v>45500</v>
       </c>
       <c r="V92" s="27"/>
-    </row>
-    <row r="93" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA92" s="172"/>
+    </row>
+    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="29" t="s">
         <v>30</v>
       </c>
@@ -8100,8 +8249,9 @@
         <v>45463</v>
       </c>
       <c r="V93" s="27"/>
-    </row>
-    <row r="94" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA93" s="172"/>
+    </row>
+    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="29" t="s">
         <v>30</v>
       </c>
@@ -8166,8 +8316,9 @@
         <v>45406</v>
       </c>
       <c r="V94" s="27"/>
-    </row>
-    <row r="95" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA94" s="172"/>
+    </row>
+    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="29" t="s">
         <v>30</v>
       </c>
@@ -8227,8 +8378,9 @@
       </c>
       <c r="V95" s="27"/>
       <c r="X95" s="79"/>
-    </row>
-    <row r="96" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA95" s="172"/>
+    </row>
+    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="149"/>
       <c r="B96" s="150" t="s">
         <v>315</v>
@@ -8254,8 +8406,11 @@
       <c r="U96" s="157"/>
       <c r="V96" s="158"/>
       <c r="X96" s="79"/>
-    </row>
-    <row r="97" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA96" s="171" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="29" t="s">
         <v>30</v>
       </c>
@@ -8315,8 +8470,9 @@
       </c>
       <c r="V97" s="27"/>
       <c r="X97" s="79"/>
-    </row>
-    <row r="98" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA97" s="172"/>
+    </row>
+    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="29" t="s">
         <v>30</v>
       </c>
@@ -8376,8 +8532,9 @@
       </c>
       <c r="V98" s="27"/>
       <c r="X98" s="79"/>
-    </row>
-    <row r="99" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA98" s="172"/>
+    </row>
+    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="29" t="s">
         <v>30</v>
       </c>
@@ -8437,8 +8594,9 @@
       </c>
       <c r="V99" s="27"/>
       <c r="X99" s="79"/>
-    </row>
-    <row r="100" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA99" s="172"/>
+    </row>
+    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="29" t="s">
         <v>30</v>
       </c>
@@ -8498,8 +8656,9 @@
       </c>
       <c r="V100" s="27"/>
       <c r="X100" s="79"/>
-    </row>
-    <row r="101" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA100" s="172"/>
+    </row>
+    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="29" t="s">
         <v>30</v>
       </c>
@@ -8554,8 +8713,11 @@
         <v>45301</v>
       </c>
       <c r="V101" s="27"/>
-    </row>
-    <row r="102" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA101" s="171" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="29" t="s">
         <v>30</v>
       </c>
@@ -8618,8 +8780,9 @@
         <v>45393</v>
       </c>
       <c r="V102" s="115"/>
-    </row>
-    <row r="103" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA102" s="172"/>
+    </row>
+    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="29" t="s">
         <v>30</v>
       </c>
@@ -8681,8 +8844,11 @@
       </c>
       <c r="V103" s="27"/>
       <c r="X103" s="79"/>
-    </row>
-    <row r="104" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA103" s="171" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="38" t="s">
         <v>37</v>
       </c>
@@ -8745,8 +8911,11 @@
       <c r="V104" s="47">
         <v>45527</v>
       </c>
-    </row>
-    <row r="105" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA104" s="171" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="29" t="s">
         <v>30</v>
       </c>
@@ -8809,8 +8978,11 @@
         <v>45422</v>
       </c>
       <c r="V105" s="27"/>
-    </row>
-    <row r="106" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA105" s="171" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="38" t="s">
         <v>37</v>
       </c>
@@ -8874,8 +9046,11 @@
         <v>45496</v>
       </c>
       <c r="X106" s="79"/>
-    </row>
-    <row r="107" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA106" s="171" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="38" t="s">
         <v>37</v>
       </c>
@@ -8936,8 +9111,11 @@
       <c r="V107" s="47">
         <v>45530</v>
       </c>
-    </row>
-    <row r="108" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA107" s="171" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="38" t="s">
         <v>30</v>
       </c>
@@ -8998,8 +9176,11 @@
       <c r="V108" s="47">
         <v>45588</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA108" s="171" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="29" t="s">
         <v>30</v>
       </c>
@@ -9050,8 +9231,11 @@
       <c r="T109" s="24"/>
       <c r="U109" s="20"/>
       <c r="V109" s="27"/>
-    </row>
-    <row r="110" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA109" s="171" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="38" t="s">
         <v>37</v>
       </c>
@@ -9094,8 +9278,9 @@
       <c r="V110" s="109">
         <v>45565</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA110" s="172"/>
+    </row>
+    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="69" t="s">
         <v>30</v>
       </c>
@@ -9157,8 +9342,9 @@
       </c>
       <c r="V111" s="76"/>
       <c r="X111" s="79"/>
-    </row>
-    <row r="112" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA111" s="172"/>
+    </row>
+    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="29" t="s">
         <v>30</v>
       </c>
@@ -9221,8 +9407,9 @@
         <v>45363</v>
       </c>
       <c r="V112" s="27"/>
-    </row>
-    <row r="113" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA112" s="172"/>
+    </row>
+    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="89" t="s">
         <v>30</v>
       </c>
@@ -9285,8 +9472,9 @@
         <v>45406</v>
       </c>
       <c r="V113" s="99"/>
-    </row>
-    <row r="114" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA113" s="172"/>
+    </row>
+    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="29" t="s">
         <v>30</v>
       </c>
@@ -9350,8 +9538,9 @@
       </c>
       <c r="V114" s="27"/>
       <c r="X114" s="79"/>
-    </row>
-    <row r="115" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA114" s="172"/>
+    </row>
+    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="29" t="s">
         <v>30</v>
       </c>
@@ -9410,8 +9599,9 @@
         <v>45363</v>
       </c>
       <c r="V115" s="27"/>
-    </row>
-    <row r="116" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA115" s="172"/>
+    </row>
+    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="29" t="s">
         <v>30</v>
       </c>
@@ -9460,8 +9650,9 @@
       <c r="T116" s="21"/>
       <c r="U116" s="20"/>
       <c r="V116" s="118"/>
-    </row>
-    <row r="117" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA116" s="172"/>
+    </row>
+    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="69" t="s">
         <v>30</v>
       </c>
@@ -9524,8 +9715,9 @@
         <v>45359</v>
       </c>
       <c r="V117" s="76"/>
-    </row>
-    <row r="118" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA117" s="172"/>
+    </row>
+    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="29" t="s">
         <v>30</v>
       </c>
@@ -9589,7 +9781,7 @@
       </c>
       <c r="V118" s="115"/>
     </row>
-    <row r="119" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="29" t="s">
         <v>30</v>
       </c>
@@ -9656,7 +9848,7 @@
       <c r="V119" s="27"/>
       <c r="X119" s="79"/>
     </row>
-    <row r="120" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="38" t="s">
         <v>37</v>
       </c>
@@ -9725,7 +9917,7 @@
       </c>
       <c r="X120" s="79"/>
     </row>
-    <row r="121" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="38" t="s">
         <v>37</v>
       </c>
@@ -9794,7 +9986,7 @@
       </c>
       <c r="X121" s="79"/>
     </row>
-    <row r="122" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="38" t="s">
         <v>37</v>
       </c>
@@ -9860,7 +10052,7 @@
         <v>45548</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="38" t="s">
         <v>37</v>
       </c>
@@ -9928,7 +10120,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="29" t="s">
         <v>30</v>
       </c>
@@ -9994,7 +10186,7 @@
       </c>
       <c r="V124" s="115"/>
     </row>
-    <row r="125" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="29" t="s">
         <v>30</v>
       </c>
@@ -10060,7 +10252,7 @@
       </c>
       <c r="V125" s="27"/>
     </row>
-    <row r="126" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="29" t="s">
         <v>30</v>
       </c>
@@ -10126,7 +10318,7 @@
       </c>
       <c r="V126" s="115"/>
     </row>
-    <row r="127" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="29" t="s">
         <v>30</v>
       </c>
@@ -10192,7 +10384,7 @@
       </c>
       <c r="V127" s="115"/>
     </row>
-    <row r="128" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="29" t="s">
         <v>30</v>
       </c>
@@ -10258,7 +10450,7 @@
       </c>
       <c r="V128" s="115"/>
     </row>
-    <row r="129" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="29" t="s">
         <v>30</v>
       </c>
@@ -10320,7 +10512,7 @@
       </c>
       <c r="V129" s="27"/>
     </row>
-    <row r="130" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="38" t="s">
         <v>37</v>
       </c>
@@ -10384,7 +10576,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="131" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="29" t="s">
         <v>30</v>
       </c>
@@ -10446,7 +10638,7 @@
       </c>
       <c r="V131" s="27"/>
     </row>
-    <row r="132" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="38" t="s">
         <v>37</v>
       </c>
@@ -10510,7 +10702,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="133" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="29" t="s">
         <v>30</v>
       </c>
@@ -10573,7 +10765,7 @@
       <c r="V133" s="27"/>
       <c r="X133" s="79"/>
     </row>
-    <row r="134" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="38" t="s">
         <v>37</v>
       </c>
@@ -10638,7 +10830,7 @@
       </c>
       <c r="X134" s="79"/>
     </row>
-    <row r="135" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="38" t="s">
         <v>37</v>
       </c>
@@ -10705,7 +10897,7 @@
       <c r="AE135" s="51"/>
       <c r="AF135" s="51"/>
     </row>
-    <row r="136" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="29" t="s">
         <v>30</v>
       </c>
@@ -10768,7 +10960,7 @@
       <c r="AE136" s="51"/>
       <c r="AF136" s="51"/>
     </row>
-    <row r="137" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="29" t="s">
         <v>30</v>
       </c>
@@ -10832,7 +11024,7 @@
       <c r="AE137" s="51"/>
       <c r="AF137" s="51"/>
     </row>
-    <row r="138" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="29" t="s">
         <v>30</v>
       </c>
@@ -10894,7 +11086,7 @@
       <c r="AE138" s="51"/>
       <c r="AF138" s="51"/>
     </row>
-    <row r="139" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="29" t="s">
         <v>30</v>
       </c>
@@ -10948,7 +11140,7 @@
       <c r="AE139" s="51"/>
       <c r="AF139" s="51"/>
     </row>
-    <row r="140" spans="1:32" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:32" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="38" t="s">
         <v>37</v>
       </c>
@@ -11004,7 +11196,7 @@
       <c r="AE140" s="121"/>
       <c r="AF140" s="121"/>
     </row>
-    <row r="141" spans="1:32" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:32" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="38" t="s">
         <v>37</v>
       </c>
@@ -11058,7 +11250,7 @@
       <c r="AE141" s="121"/>
       <c r="AF141" s="121"/>
     </row>
-    <row r="142" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="38" t="s">
         <v>37</v>
       </c>
@@ -11114,7 +11306,7 @@
       <c r="AE142" s="51"/>
       <c r="AF142" s="51"/>
     </row>
-    <row r="143" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="38" t="s">
         <v>37</v>
       </c>
@@ -11170,7 +11362,7 @@
       <c r="AE143" s="51"/>
       <c r="AF143" s="51"/>
     </row>
-    <row r="144" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="100" t="s">
         <v>37</v>
       </c>
@@ -11244,7 +11436,7 @@
       <c r="AE144" s="51"/>
       <c r="AF144" s="51"/>
     </row>
-    <row r="145" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="29" t="s">
         <v>30</v>
       </c>
@@ -11313,7 +11505,7 @@
       <c r="AE145" s="51"/>
       <c r="AF145" s="51"/>
     </row>
-    <row r="146" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="29" t="s">
         <v>30</v>
       </c>
@@ -11370,7 +11562,7 @@
       <c r="AE146" s="51"/>
       <c r="AF146" s="51"/>
     </row>
-    <row r="147" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="29" t="s">
         <v>30</v>
       </c>
@@ -11427,7 +11619,7 @@
       <c r="AE147" s="51"/>
       <c r="AF147" s="51"/>
     </row>
-    <row r="148" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="38" t="s">
         <v>37</v>
       </c>
@@ -11498,7 +11690,7 @@
       </c>
       <c r="X148" s="79"/>
     </row>
-    <row r="149" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="38" t="s">
         <v>37</v>
       </c>
@@ -11569,7 +11761,7 @@
       </c>
       <c r="X149" s="79"/>
     </row>
-    <row r="150" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="38" t="s">
         <v>37</v>
       </c>
@@ -11639,7 +11831,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="151" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="38" t="s">
         <v>37</v>
       </c>
@@ -11709,7 +11901,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row r="152" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="38" t="s">
         <v>37</v>
       </c>
@@ -11779,7 +11971,7 @@
         <v>45411</v>
       </c>
     </row>
-    <row r="153" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="38" t="s">
         <v>37</v>
       </c>
@@ -11849,7 +12041,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="154" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="29" t="s">
         <v>30</v>
       </c>
@@ -11917,7 +12109,7 @@
       </c>
       <c r="V154" s="27"/>
     </row>
-    <row r="155" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="38" t="s">
         <v>37</v>
       </c>
@@ -11985,7 +12177,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="156" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="29" t="s">
         <v>30</v>
       </c>
@@ -12053,7 +12245,7 @@
       </c>
       <c r="V156" s="115"/>
     </row>
-    <row r="157" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="38" t="s">
         <v>37</v>
       </c>
@@ -12123,7 +12315,7 @@
         <v>45496</v>
       </c>
     </row>
-    <row r="158" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="38" t="s">
         <v>37</v>
       </c>
@@ -12194,7 +12386,7 @@
       </c>
       <c r="X158" s="79"/>
     </row>
-    <row r="159" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="38" t="s">
         <v>37</v>
       </c>
@@ -12265,7 +12457,7 @@
       </c>
       <c r="X159" s="79"/>
     </row>
-    <row r="160" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="38" t="s">
         <v>37</v>
       </c>
@@ -12336,7 +12528,7 @@
       </c>
       <c r="X160" s="79"/>
     </row>
-    <row r="161" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="38" t="s">
         <v>37</v>
       </c>
@@ -12407,7 +12599,7 @@
       </c>
       <c r="X161" s="79"/>
     </row>
-    <row r="162" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="38" t="s">
         <v>37</v>
       </c>
@@ -12477,7 +12669,7 @@
         <v>45513</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="38" t="s">
         <v>37</v>
       </c>
@@ -12547,7 +12739,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="38" t="s">
         <v>37</v>
       </c>
@@ -12617,7 +12809,7 @@
         <v>45513</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="29" t="s">
         <v>30</v>
       </c>
@@ -12675,7 +12867,7 @@
       </c>
       <c r="V165" s="118"/>
     </row>
-    <row r="166" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="29" t="s">
         <v>30</v>
       </c>
@@ -12727,7 +12919,7 @@
       <c r="U166" s="20"/>
       <c r="V166" s="27"/>
     </row>
-    <row r="167" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="29" t="s">
         <v>30</v>
       </c>
@@ -12779,7 +12971,7 @@
       <c r="U167" s="91"/>
       <c r="V167" s="99"/>
     </row>
-    <row r="168" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="128" t="s">
         <v>30</v>
       </c>
@@ -12853,15 +13045,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100151DCF064A99D441887C557583945FE2" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e1edd86b3298984c2ebc542a2dec56f2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446" xmlns:ns3="31bae7fc-a932-48d2-a4fd-52f4a9d31701" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7136f63d02a27ce52c34527e5730e86e" ns2:_="" ns3:_="">
     <xsd:import namespace="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446"/>
@@ -13062,6 +13245,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -13074,14 +13266,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD72FA0E-498B-4865-98C8-1DBB7AD2CD5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C19F8D-221A-4B17-8445-07B511D2B299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13100,6 +13284,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD72FA0E-498B-4865-98C8-1DBB7AD2CD5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF5C83D7-69EC-43FE-9CD8-37EC45515CEE}">
   <ds:schemaRefs>

--- a/PPAP Master File 2024.xlsx
+++ b/PPAP Master File 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiray\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293DDE63-393F-4482-86BE-507F3F0D6488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92332EF4-03C1-4329-B60F-C846608CB61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8FD47F59-1A62-435E-B308-072C3B0AEB4E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8FD47F59-1A62-435E-B308-072C3B0AEB4E}"/>
   </bookViews>
   <sheets>
     <sheet name="PPAPs 2024" sheetId="2" r:id="rId1"/>
@@ -1993,49 +1993,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2053,7 +2053,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -2351,20 +2351,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758B90B7-AB1A-4E5B-A081-F96148B648F1}">
   <dimension ref="A1:AF168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="57" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="H131" sqref="H131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.984375E-2" style="30" customWidth="1"/>
-    <col min="2" max="2" width="49.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.1796875" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="23.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.54296875" style="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" style="30" customWidth="1"/>
     <col min="7" max="7" width="9.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="23.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.81640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="1" customWidth="1"/>
@@ -2379,8 +2379,8 @@
     <col min="20" max="20" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.1796875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.1796875" customWidth="1"/>
+    <col min="23" max="23" width="4.26953125" customWidth="1"/>
+    <col min="24" max="24" width="3.26953125" customWidth="1"/>
     <col min="25" max="25" width="11.54296875" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="19.453125" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="62.1796875" customWidth="1"/>
@@ -2390,75 +2390,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="169" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="165" t="s">
+      <c r="C1" s="172" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="169" t="s">
+      <c r="E1" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="169" t="s">
+      <c r="F1" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="165" t="s">
+      <c r="G1" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="165" t="s">
+      <c r="H1" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="165" t="s">
+      <c r="I1" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="165" t="s">
+      <c r="J1" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="165" t="s">
+      <c r="K1" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="165" t="s">
+      <c r="L1" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="167" t="s">
+      <c r="M1" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="159" t="s">
+      <c r="N1" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="161"/>
-      <c r="P1" s="159">
+      <c r="O1" s="164"/>
+      <c r="P1" s="162">
         <v>2023</v>
       </c>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="161"/>
-      <c r="S1" s="162">
+      <c r="Q1" s="163"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="165">
         <v>2024</v>
       </c>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="161"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="164"/>
     </row>
     <row r="2" spans="1:27" s="3" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="164"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="168"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="171"/>
       <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="V3" s="27"/>
       <c r="X3" s="79"/>
-      <c r="AA3" s="171" t="s">
+      <c r="AA3" s="159" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
       <c r="Z4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AA4" s="172"/>
+      <c r="AA4" s="160"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
@@ -2691,7 +2691,7 @@
       <c r="Z5" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AA5" s="172"/>
+      <c r="AA5" s="160"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
@@ -2760,7 +2760,7 @@
       <c r="Z6" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" s="172"/>
+      <c r="AA6" s="160"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
@@ -2821,7 +2821,7 @@
       <c r="Z7" s="45" t="s">
         <v>305</v>
       </c>
-      <c r="AA7" s="172"/>
+      <c r="AA7" s="160"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38" t="s">
@@ -2879,7 +2879,7 @@
       <c r="W8" t="s">
         <v>295</v>
       </c>
-      <c r="AA8" s="172"/>
+      <c r="AA8" s="160"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="69" t="s">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="V9" s="76"/>
       <c r="X9" s="79"/>
-      <c r="AA9" s="172"/>
+      <c r="AA9" s="160"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="V10" s="27"/>
       <c r="X10" s="79"/>
-      <c r="AA10" s="172"/>
+      <c r="AA10" s="160"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
@@ -3082,7 +3082,7 @@
         <v>45362</v>
       </c>
       <c r="V11" s="27"/>
-      <c r="AA11" s="172"/>
+      <c r="AA11" s="160"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="29" t="s">
@@ -3151,7 +3151,7 @@
         <v>45363</v>
       </c>
       <c r="V12" s="27"/>
-      <c r="AA12" s="172"/>
+      <c r="AA12" s="160"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
@@ -3218,7 +3218,7 @@
         <v>45363</v>
       </c>
       <c r="V13" s="27"/>
-      <c r="AA13" s="172"/>
+      <c r="AA13" s="160"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="V14" s="27"/>
       <c r="X14" s="79"/>
-      <c r="AA14" s="172"/>
+      <c r="AA14" s="160"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
@@ -3352,7 +3352,7 @@
         <v>45502</v>
       </c>
       <c r="X15" s="79"/>
-      <c r="AA15" s="172"/>
+      <c r="AA15" s="160"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="38" t="s">
@@ -3423,7 +3423,7 @@
       <c r="V16" s="47">
         <v>45530</v>
       </c>
-      <c r="AA16" s="172"/>
+      <c r="AA16" s="160"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
@@ -3488,7 +3488,7 @@
         <v>45537</v>
       </c>
       <c r="V17" s="27"/>
-      <c r="AA17" s="172"/>
+      <c r="AA17" s="160"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29" t="s">
@@ -3557,7 +3557,7 @@
         <v>45517</v>
       </c>
       <c r="V18" s="27"/>
-      <c r="AA18" s="172"/>
+      <c r="AA18" s="160"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
@@ -3620,7 +3620,7 @@
         <v>45414</v>
       </c>
       <c r="V19" s="27"/>
-      <c r="AA19" s="172"/>
+      <c r="AA19" s="160"/>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="38" t="s">
@@ -3675,7 +3675,7 @@
       <c r="T20" s="41"/>
       <c r="U20" s="46"/>
       <c r="V20" s="43"/>
-      <c r="AA20" s="172"/>
+      <c r="AA20" s="160"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="29" t="s">
@@ -3738,7 +3738,7 @@
         <v>45406</v>
       </c>
       <c r="V21" s="27"/>
-      <c r="AA21" s="172"/>
+      <c r="AA21" s="160"/>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="38" t="s">
@@ -3804,7 +3804,7 @@
         <v>45537</v>
       </c>
       <c r="X22" s="79"/>
-      <c r="AA22" s="172"/>
+      <c r="AA22" s="160"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="38" t="s">
@@ -3870,7 +3870,7 @@
         <v>45502</v>
       </c>
       <c r="X23" s="79"/>
-      <c r="AA23" s="172"/>
+      <c r="AA23" s="160"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
@@ -3935,7 +3935,7 @@
         <v>45547</v>
       </c>
       <c r="V24" s="115"/>
-      <c r="AA24" s="172"/>
+      <c r="AA24" s="160"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="38" t="s">
@@ -3994,7 +3994,7 @@
       <c r="V25" s="47">
         <v>45366</v>
       </c>
-      <c r="AA25" s="172"/>
+      <c r="AA25" s="160"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="38" t="s">
@@ -4053,7 +4053,7 @@
       <c r="V26" s="47">
         <v>45400</v>
       </c>
-      <c r="AA26" s="172"/>
+      <c r="AA26" s="160"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="38" t="s">
@@ -4110,7 +4110,7 @@
       <c r="V27" s="47">
         <v>45441</v>
       </c>
-      <c r="AA27" s="172"/>
+      <c r="AA27" s="160"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="38" t="s">
@@ -4169,7 +4169,7 @@
       <c r="V28" s="47">
         <v>45420</v>
       </c>
-      <c r="AA28" s="172"/>
+      <c r="AA28" s="160"/>
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
@@ -4236,7 +4236,7 @@
         <v>45362</v>
       </c>
       <c r="V29" s="27"/>
-      <c r="AA29" s="171" t="s">
+      <c r="AA29" s="159" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       <c r="V30" s="47">
         <v>45414</v>
       </c>
-      <c r="AA30" s="171" t="s">
+      <c r="AA30" s="159" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       <c r="V31" s="47">
         <v>45398</v>
       </c>
-      <c r="AA31" s="171" t="s">
+      <c r="AA31" s="159" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       <c r="T32" s="24"/>
       <c r="U32" s="20"/>
       <c r="V32" s="27"/>
-      <c r="AA32" s="172"/>
+      <c r="AA32" s="160"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="29" t="s">
@@ -4484,7 +4484,7 @@
         <v>45531</v>
       </c>
       <c r="V33" s="27"/>
-      <c r="AA33" s="172"/>
+      <c r="AA33" s="160"/>
     </row>
     <row r="34" spans="1:27" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="38" t="s">
@@ -4540,7 +4540,7 @@
       <c r="U34" s="34"/>
       <c r="V34" s="43"/>
       <c r="W34"/>
-      <c r="AA34" s="173"/>
+      <c r="AA34" s="161"/>
     </row>
     <row r="35" spans="1:27" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="138" t="s">
@@ -4584,7 +4584,7 @@
       <c r="U35" s="144"/>
       <c r="V35" s="147"/>
       <c r="W35"/>
-      <c r="AA35" s="171" t="s">
+      <c r="AA35" s="159" t="s">
         <v>319</v>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       <c r="U36" s="34"/>
       <c r="V36" s="43"/>
       <c r="W36"/>
-      <c r="AA36" s="173"/>
+      <c r="AA36" s="161"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="28"/>
@@ -4702,7 +4702,7 @@
       <c r="U37" s="10"/>
       <c r="V37" s="15"/>
       <c r="W37" s="127"/>
-      <c r="AA37" s="172"/>
+      <c r="AA37" s="160"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="29" t="s">
@@ -4753,7 +4753,7 @@
         <v>45547</v>
       </c>
       <c r="V38" s="27"/>
-      <c r="AA38" s="172"/>
+      <c r="AA38" s="160"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="29" t="s">
@@ -4814,7 +4814,7 @@
         <v>45357</v>
       </c>
       <c r="V39" s="27"/>
-      <c r="AA39" s="172"/>
+      <c r="AA39" s="160"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="29" t="s">
@@ -4867,7 +4867,7 @@
       <c r="T40" s="24"/>
       <c r="U40" s="20"/>
       <c r="V40" s="27"/>
-      <c r="AA40" s="171" t="s">
+      <c r="AA40" s="159" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
         <v>45406</v>
       </c>
       <c r="V41" s="27"/>
-      <c r="AA41" s="172"/>
+      <c r="AA41" s="160"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="29" t="s">
@@ -5003,7 +5003,7 @@
         <v>45359</v>
       </c>
       <c r="V42" s="27"/>
-      <c r="AA42" s="172"/>
+      <c r="AA42" s="160"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="29" t="s">
@@ -5066,7 +5066,7 @@
         <v>45497</v>
       </c>
       <c r="V43" s="27"/>
-      <c r="AA43" s="172"/>
+      <c r="AA43" s="160"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="29" t="s">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="V44" s="27"/>
       <c r="X44" s="79"/>
-      <c r="AA44" s="172"/>
+      <c r="AA44" s="160"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="29" t="s">
@@ -5203,7 +5203,7 @@
         <v>45463</v>
       </c>
       <c r="V45" s="27"/>
-      <c r="AA45" s="172"/>
+      <c r="AA45" s="160"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="29" t="s">
@@ -5272,7 +5272,7 @@
         <v>45422</v>
       </c>
       <c r="V46" s="27"/>
-      <c r="AA46" s="172"/>
+      <c r="AA46" s="160"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="38" t="s">
@@ -5343,7 +5343,7 @@
       <c r="V47" s="47">
         <v>45476</v>
       </c>
-      <c r="AA47" s="172"/>
+      <c r="AA47" s="160"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="38" t="s">
@@ -5412,7 +5412,7 @@
       <c r="V48" s="47">
         <v>45405</v>
       </c>
-      <c r="AA48" s="172"/>
+      <c r="AA48" s="160"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="38" t="s">
@@ -5479,7 +5479,7 @@
       <c r="V49" s="47">
         <v>45475</v>
       </c>
-      <c r="AA49" s="172"/>
+      <c r="AA49" s="160"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="38" t="s">
@@ -5548,7 +5548,7 @@
       <c r="V50" s="47">
         <v>45392</v>
       </c>
-      <c r="AA50" s="172"/>
+      <c r="AA50" s="160"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="29" t="s">
@@ -5615,7 +5615,7 @@
         <v>45510</v>
       </c>
       <c r="V51" s="115"/>
-      <c r="AA51" s="172"/>
+      <c r="AA51" s="160"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="38" t="s">
@@ -5684,7 +5684,7 @@
       <c r="V52" s="47">
         <v>45546</v>
       </c>
-      <c r="AA52" s="172"/>
+      <c r="AA52" s="160"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="38" t="s">
@@ -5739,7 +5739,7 @@
       <c r="T53" s="41"/>
       <c r="U53" s="34"/>
       <c r="V53" s="43"/>
-      <c r="AA53" s="172"/>
+      <c r="AA53" s="160"/>
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="29" t="s">
@@ -5800,7 +5800,7 @@
         <v>45463</v>
       </c>
       <c r="V54" s="27"/>
-      <c r="AA54" s="172"/>
+      <c r="AA54" s="160"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="29" t="s">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="V55" s="27"/>
       <c r="X55" s="79"/>
-      <c r="AA55" s="172"/>
+      <c r="AA55" s="160"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="29" t="s">
@@ -5914,7 +5914,7 @@
       <c r="U56" s="36"/>
       <c r="V56" s="27"/>
       <c r="X56" s="79"/>
-      <c r="AA56" s="172"/>
+      <c r="AA56" s="160"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="29" t="s">
@@ -5973,7 +5973,7 @@
       <c r="X57" t="s">
         <v>292</v>
       </c>
-      <c r="AA57" s="172"/>
+      <c r="AA57" s="160"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="29" t="s">
@@ -6029,7 +6029,7 @@
       <c r="W58" t="s">
         <v>291</v>
       </c>
-      <c r="AA58" s="172"/>
+      <c r="AA58" s="160"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="29" t="s">
@@ -6093,7 +6093,7 @@
       </c>
       <c r="V59" s="27"/>
       <c r="X59" s="79"/>
-      <c r="AA59" s="172"/>
+      <c r="AA59" s="160"/>
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="29" t="s">
@@ -6156,7 +6156,7 @@
         <v>45463</v>
       </c>
       <c r="V60" s="27"/>
-      <c r="AA60" s="172"/>
+      <c r="AA60" s="160"/>
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="29" t="s">
@@ -6217,7 +6217,7 @@
         <v>45355</v>
       </c>
       <c r="V61" s="27"/>
-      <c r="AA61" s="172"/>
+      <c r="AA61" s="160"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="38" t="s">
@@ -6284,7 +6284,7 @@
       <c r="V62" s="47">
         <v>45602</v>
       </c>
-      <c r="AA62" s="172"/>
+      <c r="AA62" s="160"/>
     </row>
     <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="38" t="s">
@@ -6351,7 +6351,7 @@
       <c r="V63" s="47">
         <v>45602</v>
       </c>
-      <c r="AA63" s="172"/>
+      <c r="AA63" s="160"/>
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="38" t="s">
@@ -6418,7 +6418,7 @@
       <c r="V64" s="47">
         <v>45602</v>
       </c>
-      <c r="AA64" s="172"/>
+      <c r="AA64" s="160"/>
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="29" t="s">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="V65" s="27"/>
       <c r="X65" s="79"/>
-      <c r="AA65" s="172"/>
+      <c r="AA65" s="160"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="29" t="s">
@@ -6553,7 +6553,7 @@
         <v>45498</v>
       </c>
       <c r="V66" s="27"/>
-      <c r="AA66" s="172"/>
+      <c r="AA66" s="160"/>
     </row>
     <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="29" t="s">
@@ -6614,7 +6614,7 @@
         <v>45435</v>
       </c>
       <c r="V67" s="27"/>
-      <c r="AA67" s="172"/>
+      <c r="AA67" s="160"/>
     </row>
     <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="38" t="s">
@@ -6683,7 +6683,7 @@
       <c r="V68" s="47">
         <v>45320</v>
       </c>
-      <c r="AA68" s="172"/>
+      <c r="AA68" s="160"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="38" t="s">
@@ -6752,7 +6752,7 @@
       <c r="V69" s="47">
         <v>45320</v>
       </c>
-      <c r="AA69" s="172"/>
+      <c r="AA69" s="160"/>
     </row>
     <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="38" t="s">
@@ -6823,7 +6823,7 @@
       <c r="V70" s="47">
         <v>45320</v>
       </c>
-      <c r="AA70" s="172"/>
+      <c r="AA70" s="160"/>
     </row>
     <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="38" t="s">
@@ -6892,7 +6892,7 @@
       <c r="V71" s="47">
         <v>45320</v>
       </c>
-      <c r="AA71" s="172"/>
+      <c r="AA71" s="160"/>
     </row>
     <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="29" t="s">
@@ -6961,7 +6961,7 @@
         <v>45526</v>
       </c>
       <c r="V72" s="27"/>
-      <c r="AA72" s="172"/>
+      <c r="AA72" s="160"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="29" t="s">
@@ -7030,7 +7030,7 @@
         <v>45526</v>
       </c>
       <c r="V73" s="27"/>
-      <c r="AA73" s="172"/>
+      <c r="AA73" s="160"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="29" t="s">
@@ -7099,7 +7099,7 @@
         <v>45526</v>
       </c>
       <c r="V74" s="27"/>
-      <c r="AA74" s="172"/>
+      <c r="AA74" s="160"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="29" t="s">
@@ -7168,7 +7168,7 @@
         <v>45526</v>
       </c>
       <c r="V75" s="27"/>
-      <c r="AA75" s="172"/>
+      <c r="AA75" s="160"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="29" t="s">
@@ -7235,7 +7235,7 @@
         <v>45526</v>
       </c>
       <c r="V76" s="27"/>
-      <c r="AA76" s="172"/>
+      <c r="AA76" s="160"/>
     </row>
     <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="29" t="s">
@@ -7290,7 +7290,7 @@
         <v>45463</v>
       </c>
       <c r="V77" s="27"/>
-      <c r="AA77" s="172"/>
+      <c r="AA77" s="160"/>
     </row>
     <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="38" t="s">
@@ -7359,7 +7359,7 @@
       <c r="V78" s="47">
         <v>45442</v>
       </c>
-      <c r="AA78" s="172"/>
+      <c r="AA78" s="160"/>
     </row>
     <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="38" t="s">
@@ -7414,7 +7414,7 @@
       <c r="V79" s="47">
         <v>45520</v>
       </c>
-      <c r="AA79" s="172"/>
+      <c r="AA79" s="160"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="29" t="s">
@@ -7469,7 +7469,7 @@
         <v>45547</v>
       </c>
       <c r="V80" s="27"/>
-      <c r="AA80" s="172"/>
+      <c r="AA80" s="160"/>
     </row>
     <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="100" t="s">
@@ -7522,7 +7522,7 @@
       <c r="T81" s="41"/>
       <c r="U81" s="102"/>
       <c r="V81" s="117"/>
-      <c r="AA81" s="172"/>
+      <c r="AA81" s="160"/>
     </row>
     <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="29" t="s">
@@ -7577,7 +7577,7 @@
         <v>45526</v>
       </c>
       <c r="V82" s="27"/>
-      <c r="AA82" s="172"/>
+      <c r="AA82" s="160"/>
     </row>
     <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="29" t="s">
@@ -7632,7 +7632,7 @@
         <v>45504</v>
       </c>
       <c r="V83" s="27"/>
-      <c r="AA83" s="172"/>
+      <c r="AA83" s="160"/>
     </row>
     <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="29" t="s">
@@ -7700,7 +7700,7 @@
       </c>
       <c r="V84" s="27"/>
       <c r="X84" s="79"/>
-      <c r="AA84" s="172"/>
+      <c r="AA84" s="160"/>
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="69" t="s">
@@ -7753,7 +7753,7 @@
       <c r="T85" s="24"/>
       <c r="U85" s="71"/>
       <c r="V85" s="76"/>
-      <c r="AA85" s="172"/>
+      <c r="AA85" s="160"/>
     </row>
     <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="29" t="s">
@@ -7806,7 +7806,7 @@
       <c r="T86" s="24"/>
       <c r="U86" s="20"/>
       <c r="V86" s="27"/>
-      <c r="AA86" s="172"/>
+      <c r="AA86" s="160"/>
     </row>
     <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="29" t="s">
@@ -7871,7 +7871,7 @@
         <v>45463</v>
       </c>
       <c r="V87" s="27"/>
-      <c r="AA87" s="172"/>
+      <c r="AA87" s="160"/>
     </row>
     <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="38" t="s">
@@ -7940,7 +7940,7 @@
       <c r="V88" s="47">
         <v>45371</v>
       </c>
-      <c r="AA88" s="172"/>
+      <c r="AA88" s="160"/>
     </row>
     <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="28"/>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="U89" s="10"/>
       <c r="V89" s="15"/>
-      <c r="AA89" s="172"/>
+      <c r="AA89" s="160"/>
     </row>
     <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="29" t="s">
@@ -8064,7 +8064,7 @@
         <v>45439</v>
       </c>
       <c r="V90" s="27"/>
-      <c r="AA90" s="172"/>
+      <c r="AA90" s="160"/>
     </row>
     <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="29" t="s">
@@ -8131,7 +8131,7 @@
         <v>45513</v>
       </c>
       <c r="V91" s="27"/>
-      <c r="AA91" s="172"/>
+      <c r="AA91" s="160"/>
     </row>
     <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="29" t="s">
@@ -8184,7 +8184,7 @@
         <v>45500</v>
       </c>
       <c r="V92" s="27"/>
-      <c r="AA92" s="172"/>
+      <c r="AA92" s="160"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="29" t="s">
@@ -8249,7 +8249,7 @@
         <v>45463</v>
       </c>
       <c r="V93" s="27"/>
-      <c r="AA93" s="172"/>
+      <c r="AA93" s="160"/>
     </row>
     <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="29" t="s">
@@ -8316,7 +8316,7 @@
         <v>45406</v>
       </c>
       <c r="V94" s="27"/>
-      <c r="AA94" s="172"/>
+      <c r="AA94" s="160"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="29" t="s">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="V95" s="27"/>
       <c r="X95" s="79"/>
-      <c r="AA95" s="172"/>
+      <c r="AA95" s="160"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="149"/>
@@ -8406,7 +8406,7 @@
       <c r="U96" s="157"/>
       <c r="V96" s="158"/>
       <c r="X96" s="79"/>
-      <c r="AA96" s="171" t="s">
+      <c r="AA96" s="159" t="s">
         <v>320</v>
       </c>
     </row>
@@ -8470,7 +8470,7 @@
       </c>
       <c r="V97" s="27"/>
       <c r="X97" s="79"/>
-      <c r="AA97" s="172"/>
+      <c r="AA97" s="160"/>
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="29" t="s">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="V98" s="27"/>
       <c r="X98" s="79"/>
-      <c r="AA98" s="172"/>
+      <c r="AA98" s="160"/>
     </row>
     <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="29" t="s">
@@ -8594,7 +8594,7 @@
       </c>
       <c r="V99" s="27"/>
       <c r="X99" s="79"/>
-      <c r="AA99" s="172"/>
+      <c r="AA99" s="160"/>
     </row>
     <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="29" t="s">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="V100" s="27"/>
       <c r="X100" s="79"/>
-      <c r="AA100" s="172"/>
+      <c r="AA100" s="160"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="29" t="s">
@@ -8713,7 +8713,7 @@
         <v>45301</v>
       </c>
       <c r="V101" s="27"/>
-      <c r="AA101" s="171" t="s">
+      <c r="AA101" s="159" t="s">
         <v>321</v>
       </c>
     </row>
@@ -8780,7 +8780,7 @@
         <v>45393</v>
       </c>
       <c r="V102" s="115"/>
-      <c r="AA102" s="172"/>
+      <c r="AA102" s="160"/>
     </row>
     <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="29" t="s">
@@ -8844,7 +8844,7 @@
       </c>
       <c r="V103" s="27"/>
       <c r="X103" s="79"/>
-      <c r="AA103" s="171" t="s">
+      <c r="AA103" s="159" t="s">
         <v>322</v>
       </c>
     </row>
@@ -8911,7 +8911,7 @@
       <c r="V104" s="47">
         <v>45527</v>
       </c>
-      <c r="AA104" s="171" t="s">
+      <c r="AA104" s="159" t="s">
         <v>322</v>
       </c>
     </row>
@@ -8978,7 +8978,7 @@
         <v>45422</v>
       </c>
       <c r="V105" s="27"/>
-      <c r="AA105" s="171" t="s">
+      <c r="AA105" s="159" t="s">
         <v>322</v>
       </c>
     </row>
@@ -9046,7 +9046,7 @@
         <v>45496</v>
       </c>
       <c r="X106" s="79"/>
-      <c r="AA106" s="171" t="s">
+      <c r="AA106" s="159" t="s">
         <v>322</v>
       </c>
     </row>
@@ -9111,7 +9111,7 @@
       <c r="V107" s="47">
         <v>45530</v>
       </c>
-      <c r="AA107" s="171" t="s">
+      <c r="AA107" s="159" t="s">
         <v>322</v>
       </c>
     </row>
@@ -9176,7 +9176,7 @@
       <c r="V108" s="47">
         <v>45588</v>
       </c>
-      <c r="AA108" s="171" t="s">
+      <c r="AA108" s="159" t="s">
         <v>322</v>
       </c>
     </row>
@@ -9231,7 +9231,7 @@
       <c r="T109" s="24"/>
       <c r="U109" s="20"/>
       <c r="V109" s="27"/>
-      <c r="AA109" s="171" t="s">
+      <c r="AA109" s="159" t="s">
         <v>323</v>
       </c>
     </row>
@@ -9278,7 +9278,7 @@
       <c r="V110" s="109">
         <v>45565</v>
       </c>
-      <c r="AA110" s="172"/>
+      <c r="AA110" s="160"/>
     </row>
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="69" t="s">
@@ -9342,7 +9342,7 @@
       </c>
       <c r="V111" s="76"/>
       <c r="X111" s="79"/>
-      <c r="AA111" s="172"/>
+      <c r="AA111" s="160"/>
     </row>
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="29" t="s">
@@ -9407,7 +9407,7 @@
         <v>45363</v>
       </c>
       <c r="V112" s="27"/>
-      <c r="AA112" s="172"/>
+      <c r="AA112" s="160"/>
     </row>
     <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="89" t="s">
@@ -9472,7 +9472,7 @@
         <v>45406</v>
       </c>
       <c r="V113" s="99"/>
-      <c r="AA113" s="172"/>
+      <c r="AA113" s="160"/>
     </row>
     <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="29" t="s">
@@ -9538,7 +9538,7 @@
       </c>
       <c r="V114" s="27"/>
       <c r="X114" s="79"/>
-      <c r="AA114" s="172"/>
+      <c r="AA114" s="160"/>
     </row>
     <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="29" t="s">
@@ -9599,7 +9599,7 @@
         <v>45363</v>
       </c>
       <c r="V115" s="27"/>
-      <c r="AA115" s="172"/>
+      <c r="AA115" s="160"/>
     </row>
     <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="29" t="s">
@@ -9650,7 +9650,7 @@
       <c r="T116" s="21"/>
       <c r="U116" s="20"/>
       <c r="V116" s="118"/>
-      <c r="AA116" s="172"/>
+      <c r="AA116" s="160"/>
     </row>
     <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="69" t="s">
@@ -9715,7 +9715,7 @@
         <v>45359</v>
       </c>
       <c r="V117" s="76"/>
-      <c r="AA117" s="172"/>
+      <c r="AA117" s="160"/>
     </row>
     <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="29" t="s">
@@ -9780,6 +9780,7 @@
         <v>45327</v>
       </c>
       <c r="V118" s="115"/>
+      <c r="AA118" s="160"/>
     </row>
     <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="29" t="s">
@@ -9847,6 +9848,7 @@
       </c>
       <c r="V119" s="27"/>
       <c r="X119" s="79"/>
+      <c r="AA119" s="160"/>
     </row>
     <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="38" t="s">
@@ -9916,6 +9918,7 @@
         <v>45524</v>
       </c>
       <c r="X120" s="79"/>
+      <c r="AA120" s="160"/>
     </row>
     <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="38" t="s">
@@ -9985,6 +9988,7 @@
         <v>45524</v>
       </c>
       <c r="X121" s="79"/>
+      <c r="AA121" s="160"/>
     </row>
     <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="38" t="s">
@@ -10051,6 +10055,7 @@
       <c r="V122" s="47">
         <v>45548</v>
       </c>
+      <c r="AA122" s="160"/>
     </row>
     <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="38" t="s">
@@ -10119,6 +10124,7 @@
       <c r="V123" s="47">
         <v>45524</v>
       </c>
+      <c r="AA123" s="160"/>
     </row>
     <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="29" t="s">
@@ -10185,6 +10191,7 @@
         <v>45338</v>
       </c>
       <c r="V124" s="115"/>
+      <c r="AA124" s="160"/>
     </row>
     <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="29" t="s">
@@ -10251,6 +10258,7 @@
         <v>45362</v>
       </c>
       <c r="V125" s="27"/>
+      <c r="AA125" s="160"/>
     </row>
     <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="29" t="s">
@@ -10317,6 +10325,7 @@
         <v>45327</v>
       </c>
       <c r="V126" s="115"/>
+      <c r="AA126" s="160"/>
     </row>
     <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="29" t="s">
@@ -10383,6 +10392,7 @@
         <v>45338</v>
       </c>
       <c r="V127" s="115"/>
+      <c r="AA127" s="160"/>
     </row>
     <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="29" t="s">
@@ -10449,6 +10459,7 @@
         <v>45327</v>
       </c>
       <c r="V128" s="115"/>
+      <c r="AA128" s="160"/>
     </row>
     <row r="129" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="29" t="s">
@@ -10511,6 +10522,7 @@
         <v>45362</v>
       </c>
       <c r="V129" s="27"/>
+      <c r="AA129" s="160"/>
     </row>
     <row r="130" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="38" t="s">
@@ -10575,6 +10587,7 @@
       <c r="V130" s="47">
         <v>45414</v>
       </c>
+      <c r="AA130" s="160"/>
     </row>
     <row r="131" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="29" t="s">
@@ -13045,6 +13058,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100151DCF064A99D441887C557583945FE2" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e1edd86b3298984c2ebc542a2dec56f2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446" xmlns:ns3="31bae7fc-a932-48d2-a4fd-52f4a9d31701" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7136f63d02a27ce52c34527e5730e86e" ns2:_="" ns3:_="">
     <xsd:import namespace="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446"/>
@@ -13245,15 +13267,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -13266,6 +13279,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD72FA0E-498B-4865-98C8-1DBB7AD2CD5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C19F8D-221A-4B17-8445-07B511D2B299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13284,14 +13305,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD72FA0E-498B-4865-98C8-1DBB7AD2CD5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF5C83D7-69EC-43FE-9CD8-37EC45515CEE}">
   <ds:schemaRefs>
